--- a/data/trans_orig/IP21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0877579-5091-4ED7-B4EA-7B371EAC5277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A509440-9668-46CA-B295-0855BE28AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66391014-686C-492A-8430-8AD12A11B17F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D370F587-0E66-49B4-87BE-698E19337C6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="235">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,87%</t>
+    <t>80,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>25,84%</t>
   </si>
   <si>
-    <t>64,87%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>60,14%</t>
   </si>
   <si>
-    <t>16,13%</t>
+    <t>19,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>74,16%</t>
   </si>
   <si>
-    <t>35,13%</t>
+    <t>35,5%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -125,55 +125,55 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -203,403 +203,397 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2015 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>46,29%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>53,71%</t>
+    <t>43,29%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
@@ -617,49 +611,49 @@
     <t>30,72%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>53,6%</t>
+    <t>60,64%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>46,4%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>32,45%</t>
@@ -671,16 +665,13 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>69,64%</t>
   </si>
   <si>
     <t>67,55%</t>
@@ -692,70 +683,67 @@
     <t>60,96%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>30,36%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD6B89A-2614-41C5-B045-7DD84E10CEB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B227A1D-C7DA-47D4-85AF-7DD8C746E50B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E160CBF-9153-4F99-9A51-C321CA23CF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D9EEF8-B44A-4F32-9606-C40A5C53FF4C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,10 +2343,10 @@
         <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2367,13 +2355,13 @@
         <v>923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2382,13 +2370,13 @@
         <v>2920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2391,13 @@
         <v>5938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2418,10 +2406,10 @@
         <v>3454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2433,13 +2421,13 @@
         <v>9392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2495,13 @@
         <v>5854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2522,13 +2510,13 @@
         <v>4353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2537,13 +2525,13 @@
         <v>10207</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,10 +2546,10 @@
         <v>26623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>123</v>
@@ -2669,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD5F71C-9A37-4A6B-9FD9-929244AE9E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA61540-D302-4FB2-9073-194AA83A8CC5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,13 +3261,13 @@
         <v>4777</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3288,13 +3276,13 @@
         <v>9171</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3297,13 @@
         <v>16303</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3324,13 +3312,13 @@
         <v>16451</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3339,13 +3327,13 @@
         <v>32754</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742FF35B-F2CD-4A66-A310-8AE1D605D5CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EA0A7-E98A-4068-9043-7D9EA905EAD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3437,7 +3425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3550,20 +3538,20 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3578,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3584,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3606,13 +3594,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3624,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3655,13 +3643,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3693,13 +3681,13 @@
         <v>2274</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3708,13 +3696,13 @@
         <v>852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3723,13 +3711,13 @@
         <v>3126</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3732,13 @@
         <v>5128</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3759,10 +3747,10 @@
         <v>4622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3774,13 +3762,13 @@
         <v>9750</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3836,13 @@
         <v>775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3863,13 +3851,13 @@
         <v>1448</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3878,13 +3866,13 @@
         <v>2223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,10 +3887,10 @@
         <v>1613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3914,10 +3902,10 @@
         <v>2260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3929,13 +3917,13 @@
         <v>3873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3991,13 @@
         <v>3049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4018,13 +4006,13 @@
         <v>2299</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4033,13 +4021,13 @@
         <v>5348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4042,13 @@
         <v>8719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4069,13 +4057,13 @@
         <v>6883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4084,13 +4072,13 @@
         <v>15602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP21B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A509440-9668-46CA-B295-0855BE28AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC79583-680F-45C3-9C29-957104650207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D370F587-0E66-49B4-87BE-698E19337C6D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D416E414-CF57-462E-9FD2-3BC75EC4C134}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="239">
   <si>
     <t>Menores según si estuvo en lista de espera en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,676 +74,688 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>64,5%</t>
+    <t>64,98%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>35,5%</t>
+    <t>35,02%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo en lista de espera en 2016 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>Menores según si estuvo en lista de espera en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B227A1D-C7DA-47D4-85AF-7DD8C746E50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EBEF90-18B0-403A-9CB2-FF81DB2F6B61}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1273,10 +1285,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1288,16 +1300,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1312,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1327,31 +1339,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2016</v>
+        <v>1818</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1818</v>
+        <v>2016</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1360,13 +1372,13 @@
         <v>3834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1375,34 +1387,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1818</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3352</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1818</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -1411,18 +1423,18 @@
         <v>5170</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1431,31 +1443,31 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2733</v>
+        <v>2469</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2469</v>
+        <v>2733</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -1464,13 +1476,13 @@
         <v>5202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,34 +1491,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14506</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
         <v>32</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>21770</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14506</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -1515,13 +1527,13 @@
         <v>36277</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,34 +1542,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16975</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
         <v>36</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>24503</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>27</v>
-      </c>
-      <c r="I9" s="7">
-        <v>16975</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -1566,18 +1578,18 @@
         <v>41479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1589,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1604,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1619,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,34 +1646,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6618</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>5298</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6618</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -1670,13 +1682,13 @@
         <v>11916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,34 +1697,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6618</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5298</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6618</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1721,13 +1733,13 @@
         <v>11916</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,34 +1750,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2469</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4069</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2469</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1774,13 +1786,13 @@
         <v>6538</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,34 +1801,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22942</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
         <v>43</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>29085</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22942</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1825,13 +1837,13 @@
         <v>52027</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,34 +1852,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25411</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
         <v>49</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>33154</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>40</v>
-      </c>
-      <c r="I15" s="7">
-        <v>25411</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -1876,18 +1888,18 @@
         <v>58565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D9EEF8-B44A-4F32-9606-C40A5C53FF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C75676C-38C9-4A99-8FF0-0363870756FF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1923,7 +1935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2024,34 +2036,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2060,13 +2072,13 @@
         <v>672</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,34 +2087,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2115</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>2510</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2115</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2111,13 +2123,13 @@
         <v>4625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,34 +2138,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2115</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3182</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2115</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2162,18 +2174,18 @@
         <v>5297</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2182,31 +2194,31 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3187</v>
+        <v>3430</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3430</v>
+        <v>3187</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2215,13 +2227,13 @@
         <v>6616</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,34 +2242,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18103</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="7">
         <v>25</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>18174</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7">
-        <v>18103</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -2266,13 +2278,13 @@
         <v>36279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,34 +2293,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21533</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21361</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>32</v>
-      </c>
-      <c r="I9" s="7">
-        <v>21533</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -2317,51 +2329,51 @@
         <v>42895</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>923</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1996</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>923</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2370,13 +2382,13 @@
         <v>2920</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,34 +2397,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3454</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>5938</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3454</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -2421,13 +2433,13 @@
         <v>9392</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,34 +2448,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4377</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7934</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4377</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -2472,13 +2484,13 @@
         <v>12312</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,34 +2501,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4353</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5854</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4353</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2525,13 +2537,13 @@
         <v>10207</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,25 +2552,25 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>26623</v>
+        <v>23673</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>23673</v>
+        <v>26623</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>124</v>
@@ -2591,34 +2603,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7">
+        <v>28026</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
         <v>46</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32477</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>41</v>
-      </c>
-      <c r="I15" s="7">
-        <v>28026</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
@@ -2627,18 +2639,18 @@
         <v>60503</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA61540-D302-4FB2-9073-194AA83A8CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425D5753-936B-4285-9FFC-9E3273E24F98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,31 +2790,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>891</v>
+        <v>676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>676</v>
+        <v>891</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2814,10 +2826,10 @@
         <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,34 +2838,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1221</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1221</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2865,10 +2877,10 @@
         <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,34 +2889,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1897</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>891</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1897</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2913,48 +2925,48 @@
         <v>2788</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2954</v>
+        <v>1363</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2954</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1363</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>141</v>
@@ -2981,10 +2993,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>11712</v>
+        <v>10768</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>145</v>
@@ -2993,22 +3005,22 @@
         <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11712</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10768</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3032,34 +3044,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
+        <v>12131</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
         <v>14666</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>19</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12131</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -3068,48 +3080,48 @@
         <v>26797</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>549</v>
+        <v>2738</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2738</v>
+        <v>549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>157</v>
@@ -3139,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>4591</v>
+        <v>4462</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>161</v>
@@ -3148,22 +3160,22 @@
         <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4462</v>
+        <v>4591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3187,34 +3199,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5140</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7200</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -3223,13 +3235,13 @@
         <v>12340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,10 +3252,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4394</v>
+        <v>4777</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>169</v>
@@ -3255,19 +3267,19 @@
         <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4777</v>
+        <v>4394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3276,13 +3288,13 @@
         <v>9171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,34 +3303,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16451</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7">
         <v>23</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>16303</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16451</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3327,13 +3339,13 @@
         <v>32754</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,34 +3354,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7">
+        <v>21228</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
         <v>29</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>20697</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>33</v>
-      </c>
-      <c r="I15" s="7">
-        <v>21228</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -3378,18 +3390,18 @@
         <v>41925</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EA0A7-E98A-4068-9043-7D9EA905EAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21798710-2A8B-4D9E-AD6A-34F4045499FF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3528,30 +3540,30 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3560,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,47 +3587,47 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2113</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1978</v>
+        <v>2113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,100 +3636,100 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
-        <v>1978</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>2113</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1978</v>
+        <v>2113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>822</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>2274</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
       <c r="I7" s="7">
-        <v>852</v>
+        <v>2275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3126</v>
+        <v>3098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3738,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4640</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
-        <v>5128</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
       <c r="I8" s="7">
-        <v>4622</v>
+        <v>5482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>9750</v>
+        <v>10121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,102 +3789,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5462</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
-        <v>7402</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
       <c r="I9" s="7">
-        <v>5474</v>
+        <v>7757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>12876</v>
+        <v>13219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1421</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>775</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
       <c r="I10" s="7">
-        <v>1448</v>
+        <v>925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2223</v>
+        <v>2346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,49 +3893,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2332</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>1613</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
       <c r="I11" s="7">
-        <v>2260</v>
+        <v>1665</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>3873</v>
+        <v>3997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,49 +3944,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3753</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <v>2388</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
       <c r="I12" s="7">
-        <v>3708</v>
+        <v>2590</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>6096</v>
+        <v>6343</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,49 +3997,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2243</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>3049</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>2299</v>
+        <v>3201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>5348</v>
+        <v>5443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,49 +4048,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6972</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="D14" s="7">
-        <v>8719</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
       <c r="I14" s="7">
-        <v>6883</v>
+        <v>9260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>15602</v>
+        <v>16232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,54 +4099,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9215</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
         <v>18</v>
       </c>
-      <c r="D15" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>15</v>
-      </c>
       <c r="I15" s="7">
-        <v>9182</v>
+        <v>12461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>20950</v>
+        <v>21675</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
